--- a/democracy3/initialPolicies.xlsx
+++ b/democracy3/initialPolicies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">CorporationTax</t>
   </si>
@@ -112,31 +112,13 @@
     <t xml:space="preserve">FoodStandards</t>
   </si>
   <si>
-    <t xml:space="preserve">Homelessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncompetitive economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technologybackwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asthmaepidemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organised crime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghettos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigilantemobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">streetgangs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcoholism</t>
+    <t xml:space="preserve">IntelligenceServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creationism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HandgunLaws</t>
   </si>
 </sst>
 </file>
@@ -146,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,6 +155,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,12 +206,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,10 +240,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,12 +491,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,64 +504,42 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
